--- a/planet.xlsx
+++ b/planet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TK wiring team\Documents\GitHub\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TK wiring team\Desktop\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7686B2EB-DA73-4293-9CC6-2E7000430A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E47FCC-D1CC-4629-80A6-31EEA2F3FA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,184 +385,184 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>43970</v>
+        <v>43981</v>
       </c>
       <c r="B1" s="1">
-        <v>43971</v>
+        <v>43982</v>
       </c>
       <c r="C1" s="1">
-        <v>43972</v>
+        <v>43983</v>
       </c>
       <c r="D1" s="1">
-        <v>43973</v>
+        <v>43984</v>
       </c>
       <c r="E1" s="1">
-        <v>43974</v>
+        <v>43985</v>
       </c>
       <c r="F1" s="1">
-        <v>43975</v>
+        <v>43986</v>
       </c>
       <c r="G1" s="1">
-        <v>43976</v>
+        <v>43987</v>
       </c>
       <c r="H1" s="1">
-        <v>43977</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="G3">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="H3">
-        <v>105</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F4">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H4">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H5">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B6">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C6">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D6">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E6">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F6">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G6">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H6">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B7">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C7">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D7">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E7">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F7">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G7">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H7">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>297</v>
       </c>
       <c r="H8">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,10 +611,10 @@
         <v>302</v>
       </c>
       <c r="G9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H9">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -622,25 +622,25 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">

--- a/planet.xlsx
+++ b/planet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TK wiring team\Desktop\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E47FCC-D1CC-4629-80A6-31EEA2F3FA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720877B5-E396-41FB-A075-2509816062D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="1920" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,328 +374,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>43981</v>
+        <v>44175</v>
       </c>
       <c r="B1" s="1">
-        <v>43982</v>
+        <v>44176</v>
       </c>
       <c r="C1" s="1">
-        <v>43983</v>
+        <v>44177</v>
       </c>
       <c r="D1" s="1">
-        <v>43984</v>
+        <v>44178</v>
       </c>
       <c r="E1" s="1">
-        <v>43985</v>
+        <v>44179</v>
       </c>
       <c r="F1" s="1">
-        <v>43986</v>
+        <v>44180</v>
       </c>
       <c r="G1" s="1">
-        <v>43987</v>
+        <v>44181</v>
       </c>
       <c r="H1" s="1">
-        <v>43988</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="C2">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="E2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="F2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="H2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="B3">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C3">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="D3">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="E3">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="F3">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="G3">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="H3">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="B4">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="E4">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="F4">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="H4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="E5">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="F5">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="G5">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="H5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B7">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C7">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E7">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F7">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G7">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H7">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H8">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B9">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H9">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H11">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F12">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G12">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H12">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>24</v>
       </c>
